--- a/rezultati/rezultati_tlrr_brez_slovar_fixed_lambda_fourier_transform/rezultati_tlrr_brez_slovar40.xlsx
+++ b/rezultati/rezultati_tlrr_brez_slovar_fixed_lambda_fourier_transform/rezultati_tlrr_brez_slovar40.xlsx
@@ -115,16 +115,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C2" s="0">
-        <v>60.795609900000002</v>
+        <v>14.7212619</v>
       </c>
       <c r="D2" s="0">
-        <v>14.172480782187009</v>
+        <v>14.177930418147737</v>
       </c>
       <c r="E2" s="0">
-        <v>0.065755539041468358</v>
+        <v>0.065406793503054964</v>
       </c>
       <c r="F2" s="0">
-        <v>0.40380375139310576</v>
+        <v>0.40355047932266969</v>
       </c>
     </row>
     <row r="3">
@@ -135,16 +135,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C3" s="0">
-        <v>55.941855400000001</v>
+        <v>14.191379400000001</v>
       </c>
       <c r="D3" s="0">
-        <v>12.7987868893624</v>
+        <v>12.776270100209675</v>
       </c>
       <c r="E3" s="0">
-        <v>0.27747304520665295</v>
+        <v>0.27588963383220455</v>
       </c>
       <c r="F3" s="0">
-        <v>0.56757872331550574</v>
+        <v>0.5690519897766827</v>
       </c>
     </row>
     <row r="4">
@@ -155,16 +155,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C4" s="0">
-        <v>32.159757900000002</v>
+        <v>14.272850399999999</v>
       </c>
       <c r="D4" s="0">
-        <v>11.482322315888522</v>
+        <v>11.477750314588036</v>
       </c>
       <c r="E4" s="0">
-        <v>0.15690935929304414</v>
+        <v>0.15568076812331921</v>
       </c>
       <c r="F4" s="0">
-        <v>0.73610865453532903</v>
+        <v>0.73649622285242877</v>
       </c>
     </row>
     <row r="5">
@@ -175,16 +175,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C5" s="0">
-        <v>32.032986000000001</v>
+        <v>14.3435133</v>
       </c>
       <c r="D5" s="0">
-        <v>12.319887584352118</v>
+        <v>12.322124986545433</v>
       </c>
       <c r="E5" s="0">
-        <v>0.17986166787751556</v>
+        <v>0.17948224107448343</v>
       </c>
       <c r="F5" s="0">
-        <v>0.52616359228514797</v>
+        <v>0.52602807502501059</v>
       </c>
     </row>
     <row r="6">
@@ -195,16 +195,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C6" s="0">
-        <v>55.7753728</v>
+        <v>14.225120199999999</v>
       </c>
       <c r="D6" s="0">
-        <v>12.170811927797416</v>
+        <v>12.186094933277044</v>
       </c>
       <c r="E6" s="0">
-        <v>0.1602110451114746</v>
+        <v>0.16021704711344359</v>
       </c>
       <c r="F6" s="0">
-        <v>0.66542569920354899</v>
+        <v>0.66425589813870056</v>
       </c>
     </row>
     <row r="7">
@@ -215,16 +215,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C7" s="0">
-        <v>59.658279299999997</v>
+        <v>14.276498200000001</v>
       </c>
       <c r="D7" s="0">
-        <v>12.912050085069019</v>
+        <v>12.90622719523858</v>
       </c>
       <c r="E7" s="0">
-        <v>0.13945136736710514</v>
+        <v>0.13889969442246033</v>
       </c>
       <c r="F7" s="0">
-        <v>0.42970851332872656</v>
+        <v>0.42999668003638369</v>
       </c>
     </row>
     <row r="8">
@@ -235,16 +235,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C8" s="0">
-        <v>59.999522499999998</v>
+        <v>14.371257</v>
       </c>
       <c r="D8" s="0">
-        <v>11.398313106244801</v>
+        <v>11.432517582966932</v>
       </c>
       <c r="E8" s="0">
-        <v>0.16035496398806601</v>
+        <v>0.16166225661892278</v>
       </c>
       <c r="F8" s="0">
-        <v>0.46857366232833486</v>
+        <v>0.46673207767764668</v>
       </c>
     </row>
     <row r="9">
@@ -255,16 +255,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C9" s="0">
-        <v>25.999261499999999</v>
+        <v>8.8879271000000006</v>
       </c>
       <c r="D9" s="0">
-        <v>12.364374914381877</v>
+        <v>12.380119478037955</v>
       </c>
       <c r="E9" s="0">
-        <v>0.30697840058655523</v>
+        <v>0.30633214570983169</v>
       </c>
       <c r="F9" s="0">
-        <v>0.49107843766913828</v>
+        <v>0.4901890857777354</v>
       </c>
     </row>
     <row r="10">
@@ -275,16 +275,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C10" s="0">
-        <v>26.142696600000001</v>
+        <v>8.7158678999999992</v>
       </c>
       <c r="D10" s="0">
-        <v>11.916521370130921</v>
+        <v>11.922621224159517</v>
       </c>
       <c r="E10" s="0">
-        <v>0.1888684595290348</v>
+        <v>0.18890913198246889</v>
       </c>
       <c r="F10" s="0">
-        <v>0.59324690125240098</v>
+        <v>0.59283042702965227</v>
       </c>
     </row>
     <row r="11">
@@ -295,16 +295,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C11" s="0">
-        <v>25.747520000000002</v>
+        <v>8.7161156999999996</v>
       </c>
       <c r="D11" s="0">
-        <v>11.282356930380464</v>
+        <v>11.271136058679716</v>
       </c>
       <c r="E11" s="0">
-        <v>0.14126511104906933</v>
+        <v>0.1407139443198151</v>
       </c>
       <c r="F11" s="0">
-        <v>0.41515715059181446</v>
+        <v>0.41569381817653539</v>
       </c>
     </row>
     <row r="12">
@@ -315,16 +315,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C12" s="0">
-        <v>26.386116699999999</v>
+        <v>8.7475623999999996</v>
       </c>
       <c r="D12" s="0">
-        <v>12.107020929232506</v>
+        <v>12.118860369852015</v>
       </c>
       <c r="E12" s="0">
-        <v>0.22476907489256437</v>
+        <v>0.2261280035588063</v>
       </c>
       <c r="F12" s="0">
-        <v>0.47932306969856531</v>
+        <v>0.47867016580833605</v>
       </c>
     </row>
     <row r="13">
@@ -335,16 +335,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C13" s="0">
-        <v>71.468925499999997</v>
+        <v>14.260502199999999</v>
       </c>
       <c r="D13" s="0">
-        <v>12.854184838466626</v>
+        <v>12.85354154032361</v>
       </c>
       <c r="E13" s="0">
-        <v>0.11165218905116003</v>
+        <v>0.11118677607191457</v>
       </c>
       <c r="F13" s="0">
-        <v>0.59794010760810934</v>
+        <v>0.59798439414886029</v>
       </c>
     </row>
     <row r="14">
@@ -355,16 +355,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C14" s="0">
-        <v>55.593280800000002</v>
+        <v>14.283366300000001</v>
       </c>
       <c r="D14" s="0">
-        <v>11.431127278532697</v>
+        <v>11.435165255286893</v>
       </c>
       <c r="E14" s="0">
-        <v>0.16923236646706899</v>
+        <v>0.16838613654684662</v>
       </c>
       <c r="F14" s="0">
-        <v>0.36115255643425587</v>
+        <v>0.36098469951217682</v>
       </c>
     </row>
     <row r="15">
@@ -375,16 +375,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C15" s="0">
-        <v>55.035341699999996</v>
+        <v>14.247555699999999</v>
       </c>
       <c r="D15" s="0">
-        <v>11.622114430827708</v>
+        <v>11.61862161489303</v>
       </c>
       <c r="E15" s="0">
-        <v>0.10029346092067587</v>
+        <v>0.1005899975990389</v>
       </c>
       <c r="F15" s="0">
-        <v>0.3686566543451183</v>
+        <v>0.36880493032183276</v>
       </c>
     </row>
     <row r="16">
@@ -395,16 +395,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C16" s="0">
-        <v>32.602277399999998</v>
+        <v>14.447886499999999</v>
       </c>
       <c r="D16" s="0">
-        <v>12.209180142812873</v>
+        <v>12.213445969170865</v>
       </c>
       <c r="E16" s="0">
-        <v>0.16016482785317421</v>
+        <v>0.15932624451987459</v>
       </c>
       <c r="F16" s="0">
-        <v>0.72387058128585968</v>
+        <v>0.72351516023059059</v>
       </c>
     </row>
     <row r="17">
@@ -415,16 +415,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C17" s="0">
-        <v>31.8384593</v>
+        <v>14.2702299</v>
       </c>
       <c r="D17" s="0">
-        <v>11.756132347982586</v>
+        <v>11.729862653789311</v>
       </c>
       <c r="E17" s="0">
-        <v>0.17845752793397673</v>
+        <v>0.17590718703571784</v>
       </c>
       <c r="F17" s="0">
-        <v>0.80927626995365154</v>
+        <v>0.8117275584326098</v>
       </c>
     </row>
     <row r="18">
@@ -435,16 +435,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C18" s="0">
-        <v>55.669742800000002</v>
+        <v>14.2952391</v>
       </c>
       <c r="D18" s="0">
-        <v>11.374265432182384</v>
+        <v>11.369850675031795</v>
       </c>
       <c r="E18" s="0">
-        <v>0.11425869208709334</v>
+        <v>0.11524907636991995</v>
       </c>
       <c r="F18" s="0">
-        <v>0.86719472992162605</v>
+        <v>0.86763560902544834</v>
       </c>
     </row>
     <row r="19">
@@ -455,16 +455,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C19" s="0">
-        <v>57.713932900000003</v>
+        <v>15.034699099999999</v>
       </c>
       <c r="D19" s="0">
-        <v>13.247935745753125</v>
+        <v>13.257942248122351</v>
       </c>
       <c r="E19" s="0">
-        <v>0.11206058784097297</v>
+        <v>0.11233647146654993</v>
       </c>
       <c r="F19" s="0">
-        <v>0.53757362492470151</v>
+        <v>0.53695467457916302</v>
       </c>
     </row>
     <row r="20">
@@ -475,16 +475,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C20" s="0">
-        <v>32.590533200000003</v>
+        <v>14.3567722</v>
       </c>
       <c r="D20" s="0">
-        <v>11.619875499004426</v>
+        <v>11.636411467699128</v>
       </c>
       <c r="E20" s="0">
-        <v>0.17489454188696221</v>
+        <v>0.1762708272127495</v>
       </c>
       <c r="F20" s="0">
-        <v>0.52395581062557472</v>
+        <v>0.52295926620530331</v>
       </c>
     </row>
     <row r="21">
@@ -495,16 +495,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C21" s="0">
-        <v>73.196223099999997</v>
+        <v>14.811821200000001</v>
       </c>
       <c r="D21" s="0">
-        <v>13.415546136443099</v>
+        <v>13.426638090939855</v>
       </c>
       <c r="E21" s="0">
-        <v>0.10350999253780865</v>
+        <v>0.10450105577107337</v>
       </c>
       <c r="F21" s="0">
-        <v>0.42827992509944846</v>
+        <v>0.42773335707476562</v>
       </c>
     </row>
     <row r="22">
@@ -515,16 +515,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C22" s="0">
-        <v>57.606044900000001</v>
+        <v>19.507512899999998</v>
       </c>
       <c r="D22" s="0">
-        <v>12.649354430278464</v>
+        <v>12.647032646303369</v>
       </c>
       <c r="E22" s="0">
-        <v>0.21174069236184911</v>
+        <v>0.2109364432339795</v>
       </c>
       <c r="F22" s="0">
-        <v>0.5721084285331639</v>
+        <v>0.57226137656554443</v>
       </c>
     </row>
     <row r="23">
@@ -535,16 +535,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C23" s="0">
-        <v>32.377769800000003</v>
+        <v>14.191941699999999</v>
       </c>
       <c r="D23" s="0">
-        <v>12.025750273218495</v>
+        <v>12.001186032831409</v>
       </c>
       <c r="E23" s="0">
-        <v>0.16705711018998606</v>
+        <v>0.16621442613137788</v>
       </c>
       <c r="F23" s="0">
-        <v>0.60475981229895703</v>
+        <v>0.60647253165593096</v>
       </c>
     </row>
     <row r="24">
@@ -555,16 +555,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C24" s="0">
-        <v>59.113730500000003</v>
+        <v>14.5547322</v>
       </c>
       <c r="D24" s="0">
-        <v>12.429886850020598</v>
+        <v>12.390321685479421</v>
       </c>
       <c r="E24" s="0">
-        <v>0.21657598407270476</v>
+        <v>0.21456773901286394</v>
       </c>
       <c r="F24" s="0">
-        <v>0.53596691005512065</v>
+        <v>0.53841386600645125</v>
       </c>
     </row>
     <row r="25">
@@ -575,16 +575,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C25" s="0">
-        <v>58.964884499999997</v>
+        <v>14.5297167</v>
       </c>
       <c r="D25" s="0">
-        <v>12.554351079751697</v>
+        <v>12.541771219408492</v>
       </c>
       <c r="E25" s="0">
-        <v>0.29587814306246457</v>
+        <v>0.29738463844110702</v>
       </c>
       <c r="F25" s="0">
-        <v>0.52118398484602757</v>
+        <v>0.52193936767660076</v>
       </c>
     </row>
     <row r="26">
@@ -595,16 +595,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C26" s="0">
-        <v>73.3064301</v>
+        <v>14.7390416</v>
       </c>
       <c r="D26" s="0">
-        <v>12.057986055518191</v>
+        <v>12.036286038015533</v>
       </c>
       <c r="E26" s="0">
-        <v>0.2373262680764216</v>
+        <v>0.2360544384376263</v>
       </c>
       <c r="F26" s="0">
-        <v>0.49660231064613963</v>
+        <v>0.49784452666834872</v>
       </c>
     </row>
     <row r="27">
@@ -615,16 +615,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C27" s="0">
-        <v>31.7652219</v>
+        <v>14.319070099999999</v>
       </c>
       <c r="D27" s="0">
-        <v>11.2579202824025</v>
+        <v>11.248498663265242</v>
       </c>
       <c r="E27" s="0">
-        <v>0.34371826419962059</v>
+        <v>0.34302502947276453</v>
       </c>
       <c r="F27" s="0">
-        <v>0.51780864050179931</v>
+        <v>0.51837061433214815</v>
       </c>
     </row>
     <row r="28">
@@ -635,16 +635,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C28" s="0">
-        <v>25.014829200000001</v>
+        <v>8.8258797999999992</v>
       </c>
       <c r="D28" s="0">
-        <v>11.342815386146759</v>
+        <v>11.356235964850303</v>
       </c>
       <c r="E28" s="0">
-        <v>0.27729219665456234</v>
+        <v>0.27841631518730203</v>
       </c>
       <c r="F28" s="0">
-        <v>0.53859213704540276</v>
+        <v>0.53776060024539185</v>
       </c>
     </row>
     <row r="29">
@@ -655,16 +655,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C29" s="0">
-        <v>31.230043899999998</v>
+        <v>14.4022813</v>
       </c>
       <c r="D29" s="0">
-        <v>11.458723594007751</v>
+        <v>11.466525457090009</v>
       </c>
       <c r="E29" s="0">
-        <v>0.28858024194852155</v>
+        <v>0.28933583143526503</v>
       </c>
       <c r="F29" s="0">
-        <v>0.62671227546428343</v>
+        <v>0.62614960102496442</v>
       </c>
     </row>
     <row r="30">
@@ -675,16 +675,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C30" s="0">
-        <v>57.144710400000001</v>
+        <v>16.109579100000001</v>
       </c>
       <c r="D30" s="0">
-        <v>12.278512005036621</v>
+        <v>12.261316187659583</v>
       </c>
       <c r="E30" s="0">
-        <v>0.17572377490422991</v>
+        <v>0.17497911567065139</v>
       </c>
       <c r="F30" s="0">
-        <v>0.38698672996119216</v>
+        <v>0.38775362257788232</v>
       </c>
     </row>
     <row r="31">
@@ -695,16 +695,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C31" s="0">
-        <v>31.657422199999999</v>
+        <v>14.486886999999999</v>
       </c>
       <c r="D31" s="0">
-        <v>11.063527128664054</v>
+        <v>11.08150080502304</v>
       </c>
       <c r="E31" s="0">
-        <v>0.20481731770372019</v>
+        <v>0.2057569390547444</v>
       </c>
       <c r="F31" s="0">
-        <v>0.66203871575260675</v>
+        <v>0.66067017815406748</v>
       </c>
     </row>
     <row r="32">
@@ -715,16 +715,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C32" s="0">
-        <v>54.936848900000001</v>
+        <v>14.376730999999999</v>
       </c>
       <c r="D32" s="0">
-        <v>11.930748940856031</v>
+        <v>11.895611730175089</v>
       </c>
       <c r="E32" s="0">
-        <v>0.21452513779780771</v>
+        <v>0.21318357205041533</v>
       </c>
       <c r="F32" s="0">
-        <v>0.67722895334730304</v>
+        <v>0.67997411054746726</v>
       </c>
     </row>
     <row r="33">
@@ -735,16 +735,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C33" s="0">
-        <v>32.306728700000001</v>
+        <v>14.7160612</v>
       </c>
       <c r="D33" s="0">
-        <v>12.122108205427264</v>
+        <v>12.13587482644007</v>
       </c>
       <c r="E33" s="0">
-        <v>0.19400579324580922</v>
+        <v>0.19396285252338355</v>
       </c>
       <c r="F33" s="0">
-        <v>0.74900479494375893</v>
+        <v>0.74781860693989077</v>
       </c>
     </row>
     <row r="34">
@@ -755,16 +755,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C34" s="0">
-        <v>30.717317999999999</v>
+        <v>10.5844954</v>
       </c>
       <c r="D34" s="0">
-        <v>9.3572935052936064</v>
+        <v>9.3552750033482912</v>
       </c>
       <c r="E34" s="0">
-        <v>0.036088251670245826</v>
+        <v>0.036369883297315608</v>
       </c>
       <c r="F34" s="0">
-        <v>0.56184079434757039</v>
+        <v>0.56197137492907401</v>
       </c>
     </row>
     <row r="35">
@@ -775,16 +775,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C35" s="0">
-        <v>25.882104500000001</v>
+        <v>9.0043989999999994</v>
       </c>
       <c r="D35" s="0">
-        <v>11.928697290682905</v>
+        <v>11.911338982626258</v>
       </c>
       <c r="E35" s="0">
-        <v>0.34030335963108577</v>
+        <v>0.33774936647173337</v>
       </c>
       <c r="F35" s="0">
-        <v>0.49939939858355897</v>
+        <v>0.50039842076146801</v>
       </c>
     </row>
     <row r="36">
@@ -795,16 +795,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C36" s="0">
-        <v>62.149917500000001</v>
+        <v>14.494174599999999</v>
       </c>
       <c r="D36" s="0">
-        <v>13.16182885659693</v>
+        <v>13.162536671185176</v>
       </c>
       <c r="E36" s="0">
-        <v>0.2811741038668587</v>
+        <v>0.28090400609426236</v>
       </c>
       <c r="F36" s="0">
-        <v>0.48815866696671378</v>
+        <v>0.48811888845672169</v>
       </c>
     </row>
     <row r="37">
@@ -815,16 +815,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C37" s="0">
-        <v>25.9341689</v>
+        <v>9.0001528999999998</v>
       </c>
       <c r="D37" s="0">
-        <v>12.672674178860957</v>
+        <v>12.680335970017865</v>
       </c>
       <c r="E37" s="0">
-        <v>0.32505315489593567</v>
+        <v>0.32491657420983028</v>
       </c>
       <c r="F37" s="0">
-        <v>0.57361943366786805</v>
+        <v>0.57311366918413853</v>
       </c>
     </row>
     <row r="38">
@@ -835,16 +835,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C38" s="0">
-        <v>72.030963600000007</v>
+        <v>14.4105031</v>
       </c>
       <c r="D38" s="0">
-        <v>13.227108235389938</v>
+        <v>13.23855171975238</v>
       </c>
       <c r="E38" s="0">
-        <v>0.24316501878997615</v>
+        <v>0.24424350703378303</v>
       </c>
       <c r="F38" s="0">
-        <v>0.50833533601144809</v>
+        <v>0.50766605544042809</v>
       </c>
     </row>
     <row r="39">
@@ -855,16 +855,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C39" s="0">
-        <v>72.104624599999994</v>
+        <v>14.678263400000001</v>
       </c>
       <c r="D39" s="0">
-        <v>12.822946496882917</v>
+        <v>12.814290495621925</v>
       </c>
       <c r="E39" s="0">
-        <v>0.21938988866363696</v>
+        <v>0.21947503963095619</v>
       </c>
       <c r="F39" s="0">
-        <v>0.42595039305542276</v>
+        <v>0.42637508932414614</v>
       </c>
     </row>
     <row r="40">
@@ -875,16 +875,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C40" s="0">
-        <v>26.0738542</v>
+        <v>9.0835194000000001</v>
       </c>
       <c r="D40" s="0">
-        <v>11.697222324042</v>
+        <v>11.675943864660113</v>
       </c>
       <c r="E40" s="0">
-        <v>0.20574838199631137</v>
+        <v>0.20456384656866866</v>
       </c>
       <c r="F40" s="0">
-        <v>0.45129206272701777</v>
+        <v>0.45239898120955957</v>
       </c>
     </row>
     <row r="41">
@@ -895,16 +895,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C41" s="0">
-        <v>60.5696218</v>
+        <v>14.851580500000001</v>
       </c>
       <c r="D41" s="0">
-        <v>14.39885489535741</v>
+        <v>14.384093581409276</v>
       </c>
       <c r="E41" s="0">
-        <v>0.17139852271198705</v>
+        <v>0.17034739935495391</v>
       </c>
       <c r="F41" s="0">
-        <v>0.384782923756257</v>
+        <v>0.38543740255942704</v>
       </c>
     </row>
     <row r="42">
@@ -915,16 +915,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C42" s="0">
-        <v>56.900765999999997</v>
+        <v>14.6274023</v>
       </c>
       <c r="D42" s="0">
-        <v>12.209841850183372</v>
+        <v>12.196050976561825</v>
       </c>
       <c r="E42" s="0">
-        <v>0.125977247127879</v>
+        <v>0.12406181671019174</v>
       </c>
       <c r="F42" s="0">
-        <v>0.44772202612808709</v>
+        <v>0.44843345379339145</v>
       </c>
     </row>
     <row r="43">
@@ -935,16 +935,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C43" s="0">
-        <v>25.611826799999999</v>
+        <v>8.8125578000000004</v>
       </c>
       <c r="D43" s="0">
-        <v>12.028648990194664</v>
+        <v>12.042080594818492</v>
       </c>
       <c r="E43" s="0">
-        <v>0.17863689198133106</v>
+        <v>0.17928298175569987</v>
       </c>
       <c r="F43" s="0">
-        <v>0.68015665581290718</v>
+        <v>0.67910569433458534</v>
       </c>
     </row>
     <row r="44">
@@ -955,16 +955,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C44" s="0">
-        <v>25.945338700000001</v>
+        <v>9.5869546000000003</v>
       </c>
       <c r="D44" s="0">
-        <v>12.889812095925029</v>
+        <v>12.894918828810409</v>
       </c>
       <c r="E44" s="0">
-        <v>0.16548119391706426</v>
+        <v>0.16499530011396821</v>
       </c>
       <c r="F44" s="0">
-        <v>0.52787532491625677</v>
+        <v>0.5275650600964138</v>
       </c>
     </row>
     <row r="45">
@@ -975,16 +975,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C45" s="0">
-        <v>31.879935199999998</v>
+        <v>14.979991999999999</v>
       </c>
       <c r="D45" s="0">
-        <v>11.398186834038363</v>
+        <v>11.399581963418433</v>
       </c>
       <c r="E45" s="0">
-        <v>0.2383906859026903</v>
+        <v>0.23871738877901494</v>
       </c>
       <c r="F45" s="0">
-        <v>0.66468182675357279</v>
+        <v>0.66457507399541016</v>
       </c>
     </row>
     <row r="46">
@@ -995,16 +995,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C46" s="0">
-        <v>58.855764499999999</v>
+        <v>14.9381515</v>
       </c>
       <c r="D46" s="0">
-        <v>12.773949290193972</v>
+        <v>12.778405980408989</v>
       </c>
       <c r="E46" s="0">
-        <v>0.12197510974070713</v>
+        <v>0.11981688482108219</v>
       </c>
       <c r="F46" s="0">
-        <v>0.5090356499313512</v>
+        <v>0.50877453306406517</v>
       </c>
     </row>
     <row r="47">
@@ -1015,16 +1015,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C47" s="0">
-        <v>57.970254599999997</v>
+        <v>15.252333500000001</v>
       </c>
       <c r="D47" s="0">
-        <v>11.880471993072151</v>
+        <v>11.879576529773139</v>
       </c>
       <c r="E47" s="0">
-        <v>0.18368376993929067</v>
+        <v>0.18368304605263958</v>
       </c>
       <c r="F47" s="0">
-        <v>0.63778509048427046</v>
+        <v>0.63785084570396411</v>
       </c>
     </row>
     <row r="48">
@@ -1035,16 +1035,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C48" s="0">
-        <v>32.430739000000003</v>
+        <v>15.0789794</v>
       </c>
       <c r="D48" s="0">
-        <v>12.371571105494395</v>
+        <v>12.367428500946236</v>
       </c>
       <c r="E48" s="0">
-        <v>0.19722464432720355</v>
+        <v>0.19620869546364286</v>
       </c>
       <c r="F48" s="0">
-        <v>0.42241623404026585</v>
+        <v>0.4226177471663477</v>
       </c>
     </row>
     <row r="49">
@@ -1055,16 +1055,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C49" s="0">
-        <v>26.248511100000002</v>
+        <v>10.5096901</v>
       </c>
       <c r="D49" s="0">
-        <v>13.845468357975264</v>
+        <v>13.845008284512721</v>
       </c>
       <c r="E49" s="0">
-        <v>0.091880927416897462</v>
+        <v>0.091464447788242351</v>
       </c>
       <c r="F49" s="0">
-        <v>0.44509767119314408</v>
+        <v>0.44512124771307543</v>
       </c>
     </row>
     <row r="50">
@@ -1075,16 +1075,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C50" s="0">
-        <v>69.031595600000003</v>
+        <v>15.2037727</v>
       </c>
       <c r="D50" s="0">
-        <v>12.374816746502891</v>
+        <v>12.342741882733314</v>
       </c>
       <c r="E50" s="0">
-        <v>0.26700975787327913</v>
+        <v>0.26524655440143496</v>
       </c>
       <c r="F50" s="0">
-        <v>0.46708043916931247</v>
+        <v>0.46880844145164247</v>
       </c>
     </row>
     <row r="51">
@@ -1095,16 +1095,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C51" s="0">
-        <v>58.798328400000003</v>
+        <v>15.0153962</v>
       </c>
       <c r="D51" s="0">
-        <v>13.41804659374716</v>
+        <v>13.431145377862993</v>
       </c>
       <c r="E51" s="0">
-        <v>0.22194099819987778</v>
+        <v>0.22180164184072909</v>
       </c>
       <c r="F51" s="0">
-        <v>0.47539543933108697</v>
+        <v>0.47467905799914861</v>
       </c>
     </row>
     <row r="52">
@@ -1115,16 +1115,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C52" s="0">
-        <v>32.625311600000003</v>
+        <v>15.0008888</v>
       </c>
       <c r="D52" s="0">
-        <v>11.461770612259919</v>
+        <v>11.469286333283382</v>
       </c>
       <c r="E52" s="0">
-        <v>0.17542535904502363</v>
+        <v>0.17526304670514053</v>
       </c>
       <c r="F52" s="0">
-        <v>0.45450199817074355</v>
+        <v>0.45410889706849716</v>
       </c>
     </row>
     <row r="53">
@@ -1135,16 +1135,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C53" s="0">
-        <v>55.4849739</v>
+        <v>15.085222399999999</v>
       </c>
       <c r="D53" s="0">
-        <v>12.052902757503043</v>
+        <v>12.027954746233398</v>
       </c>
       <c r="E53" s="0">
-        <v>0.23250260387603094</v>
+        <v>0.23123466776798687</v>
       </c>
       <c r="F53" s="0">
-        <v>0.37722851087553261</v>
+        <v>0.37831356145538608</v>
       </c>
     </row>
     <row r="54">
@@ -1155,16 +1155,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C54" s="0">
-        <v>56.7773751</v>
+        <v>15.009697900000001</v>
       </c>
       <c r="D54" s="0">
-        <v>13.032109764199756</v>
+        <v>13.036926723309003</v>
       </c>
       <c r="E54" s="0">
-        <v>0.26676374030221878</v>
+        <v>0.26609779169697212</v>
       </c>
       <c r="F54" s="0">
-        <v>0.50323225539489325</v>
+        <v>0.50295325378816136</v>
       </c>
     </row>
     <row r="55">
@@ -1175,16 +1175,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C55" s="0">
-        <v>72.450746100000003</v>
+        <v>15.058662200000001</v>
       </c>
       <c r="D55" s="0">
-        <v>11.36903200653051</v>
+        <v>11.365083890176425</v>
       </c>
       <c r="E55" s="0">
-        <v>0.15525850516571374</v>
+        <v>0.15384724106320075</v>
       </c>
       <c r="F55" s="0">
-        <v>0.37291066490929453</v>
+        <v>0.37308020762949251</v>
       </c>
     </row>
     <row r="56">
@@ -1195,16 +1195,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C56" s="0">
-        <v>56.865464000000003</v>
+        <v>15.165514399999999</v>
       </c>
       <c r="D56" s="0">
-        <v>13.234449479122141</v>
+        <v>13.224080988637823</v>
       </c>
       <c r="E56" s="0">
-        <v>0.2739508029613375</v>
+        <v>0.27265540910835312</v>
       </c>
       <c r="F56" s="0">
-        <v>0.35686413029303482</v>
+        <v>0.35729037928226504</v>
       </c>
     </row>
     <row r="57">
@@ -1215,16 +1215,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C57" s="0">
-        <v>25.9987858</v>
+        <v>9.6033909000000008</v>
       </c>
       <c r="D57" s="0">
-        <v>12.684797321895351</v>
+        <v>12.70347977263264</v>
       </c>
       <c r="E57" s="0">
-        <v>0.28435907364740315</v>
+        <v>0.28634080621817681</v>
       </c>
       <c r="F57" s="0">
-        <v>0.41972317627125061</v>
+        <v>0.41882136530529901</v>
       </c>
     </row>
     <row r="58">
@@ -1235,16 +1235,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C58" s="0">
-        <v>25.592855199999999</v>
+        <v>9.1989113000000007</v>
       </c>
       <c r="D58" s="0">
-        <v>12.110852749567105</v>
+        <v>12.124871319223178</v>
       </c>
       <c r="E58" s="0">
-        <v>0.18307606638182242</v>
+        <v>0.18413286367487336</v>
       </c>
       <c r="F58" s="0">
-        <v>0.647484568458358</v>
+        <v>0.64644040521247359</v>
       </c>
     </row>
     <row r="59">
@@ -1255,16 +1255,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C59" s="0">
-        <v>32.566014799999998</v>
+        <v>15.407207400000001</v>
       </c>
       <c r="D59" s="0">
-        <v>12.686352004326036</v>
+        <v>12.667511546594955</v>
       </c>
       <c r="E59" s="0">
-        <v>0.40465545476442849</v>
+        <v>0.4041773813240746</v>
       </c>
       <c r="F59" s="0">
-        <v>0.41594939988432045</v>
+        <v>0.41685260989305434</v>
       </c>
     </row>
     <row r="60">
@@ -1275,16 +1275,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C60" s="0">
-        <v>32.133402199999999</v>
+        <v>14.955365799999999</v>
       </c>
       <c r="D60" s="0">
-        <v>12.229431111157593</v>
+        <v>12.228925048214832</v>
       </c>
       <c r="E60" s="0">
-        <v>0.29330956551984022</v>
+        <v>0.29222129959850346</v>
       </c>
       <c r="F60" s="0">
-        <v>0.62749950634850604</v>
+        <v>0.6275360671973027</v>
       </c>
     </row>
     <row r="61">
@@ -1295,16 +1295,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C61" s="0">
-        <v>58.792430199999998</v>
+        <v>15.5168091</v>
       </c>
       <c r="D61" s="0">
-        <v>13.833326832377377</v>
+        <v>13.831272226587854</v>
       </c>
       <c r="E61" s="0">
-        <v>0.17755021086497536</v>
+        <v>0.17582335136874092</v>
       </c>
       <c r="F61" s="0">
-        <v>0.38674145164980372</v>
+        <v>0.3868329443173022</v>
       </c>
     </row>
     <row r="62">
@@ -1315,16 +1315,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C62" s="0">
-        <v>58.116102400000003</v>
+        <v>15.076532200000001</v>
       </c>
       <c r="D62" s="0">
-        <v>12.878568487478796</v>
+        <v>12.868704935421995</v>
       </c>
       <c r="E62" s="0">
-        <v>0.13696756098566931</v>
+        <v>0.13797987397816922</v>
       </c>
       <c r="F62" s="0">
-        <v>0.54297416069668825</v>
+        <v>0.54359110336693106</v>
       </c>
     </row>
     <row r="63">
@@ -1335,16 +1335,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C63" s="0">
-        <v>73.716009799999995</v>
+        <v>15.1588885</v>
       </c>
       <c r="D63" s="0">
-        <v>13.532339529271745</v>
+        <v>13.518973457517085</v>
       </c>
       <c r="E63" s="0">
-        <v>0.19235522996879056</v>
+        <v>0.19204739756792674</v>
       </c>
       <c r="F63" s="0">
-        <v>0.52480273784102127</v>
+        <v>0.52561093955660187</v>
       </c>
     </row>
     <row r="64">
@@ -1355,16 +1355,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C64" s="0">
-        <v>57.489545399999997</v>
+        <v>15.3662668</v>
       </c>
       <c r="D64" s="0">
-        <v>12.427754123618758</v>
+        <v>12.434854387577257</v>
       </c>
       <c r="E64" s="0">
-        <v>0.18692095713119658</v>
+        <v>0.18914616090398878</v>
       </c>
       <c r="F64" s="0">
-        <v>0.60138624679908037</v>
+        <v>0.60089484563069595</v>
       </c>
     </row>
     <row r="65">
@@ -1375,16 +1375,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C65" s="0">
-        <v>25.051610700000001</v>
+        <v>9.1965161000000002</v>
       </c>
       <c r="D65" s="0">
-        <v>10.413668418506381</v>
+        <v>10.41187350449858</v>
       </c>
       <c r="E65" s="0">
-        <v>0.1324272233015622</v>
+        <v>0.1327962038150749</v>
       </c>
       <c r="F65" s="0">
-        <v>0.88497469857174726</v>
+        <v>0.88515759493414459</v>
       </c>
     </row>
     <row r="66">
@@ -1395,16 +1395,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C66" s="0">
-        <v>31.809554800000001</v>
+        <v>15.9883746</v>
       </c>
       <c r="D66" s="0">
-        <v>12.337705645416463</v>
+        <v>12.305348518937482</v>
       </c>
       <c r="E66" s="0">
-        <v>0.23190197497577825</v>
+        <v>0.23073235068574094</v>
       </c>
       <c r="F66" s="0">
-        <v>0.60975981066637597</v>
+        <v>0.61203555576164936</v>
       </c>
     </row>
     <row r="67">
@@ -1415,16 +1415,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C67" s="0">
-        <v>26.277669700000001</v>
+        <v>10.8321901</v>
       </c>
       <c r="D67" s="0">
-        <v>12.760814311814501</v>
+        <v>12.761080576495267</v>
       </c>
       <c r="E67" s="0">
-        <v>0.18821462544528195</v>
+        <v>0.18903185663727648</v>
       </c>
       <c r="F67" s="0">
-        <v>0.50157158313447892</v>
+        <v>0.50155620776637533</v>
       </c>
     </row>
     <row r="68">
@@ -1435,16 +1435,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C68" s="0">
-        <v>31.072006399999999</v>
+        <v>17.0093651</v>
       </c>
       <c r="D68" s="0">
-        <v>11.096046624711583</v>
+        <v>11.096367328754859</v>
       </c>
       <c r="E68" s="0">
-        <v>0.13453259587073135</v>
+        <v>0.13443775587314574</v>
       </c>
       <c r="F68" s="0">
-        <v>0.74340788460015284</v>
+        <v>0.74338043669061493</v>
       </c>
     </row>
     <row r="69">
@@ -1455,16 +1455,16 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="C69" s="0">
-        <v>30.810062599999998</v>
+        <v>15.369446</v>
       </c>
       <c r="D69" s="0">
-        <v>10.663041807404083</v>
+        <v>10.664163177044134</v>
       </c>
       <c r="E69" s="0">
-        <v>0.18201963928557799</v>
+        <v>0.18211371457600298</v>
       </c>
       <c r="F69" s="0">
-        <v>0.46808367402349099</v>
+        <v>0.46802324717468452</v>
       </c>
     </row>
   </sheetData>
